--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="URLs_Fallidas" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Stats_Extraccion" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -49,8 +51,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,30 +471,40 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>fecha_comentario</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>hora_comentario</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>likes_count</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>replies_count</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_reply</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>author_url</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>extraction_status</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>created_time_raw</t>
         </is>
@@ -516,29 +530,49 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mejore esas instalaciones</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:51:47.000Z</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>46079.32762731481</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>07:51:47</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1483252086528946', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE0ODMyNTIwODY1Mjg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xNDgzMjUyMDg2NTI4OTQ2', 'date': '2026-02-26T07:51:47.000Z', 'text': 'Mejore esas instalaciones', 'profileUrl': 'https://www.facebook.com/diego.bet</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -547,404 +581,1412 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1341169444721958/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1341169444721958/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nutritivas???
+Solo azúcar</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-02-26T03:04:13.000Z</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>46079.12792824074</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>03:04:13</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1173573694661157', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzExNzM1NzM2OTQ2NjExNTc=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xMTczNTczNjk0NjYxMTU3', 'date': '2026-02-26T03:04:13.000Z', 'text': 'Nutritivas???\nSolo azúcar', 'profileUrl': 'https://www.facebook.com/Andrw7Fi</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUWgOqsDK_s/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DUWgOqsDK_s/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Más bien mejoren las instalaciones de sus empresas</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-02-25T13:45:37.000Z</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>46078.57334490741</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>13:45:37</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1416928009434482', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE0MTY5MjgwMDk0MzQ0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xNDE2OTI4MDA5NDM0NDgy', 'date': '2026-02-25T13:45:37.000Z', 'text': 'Más bien mejoren las instalaciones de sus empresas', 'profileUrl': 'https://w</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Compañía de mierda ojalá en Colombia los cancelen y los saquen volando 
+Por esclavistas y no dejar entrar al ministerio de trabajo Colombiano</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-02-25T13:31:40.000Z</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>46078.56365740741</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>13:31:40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=924942476744036', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzkyNDk0MjQ3Njc0NDAzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV85MjQ5NDI0NzY3NDQwMzY=', 'date': '2026-02-25T13:31:40.000Z', 'text': 'Compañía de mierda ojalá en Colombia los cancelen y los saquen volando \nPor e</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Con todo ese reproceso que le hecha a la leche saborizad... No gracias</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-02-25T10:26:43.000Z</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>46078.43521990741</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10:26:43</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=26347644071539373', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzI2MzQ3NjQ0MDcxNTM5Mzcz', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8yNjM0NzY0NDA3MTUzOTM3Mw==', 'date': '2026-02-25T10:26:43.000Z', 'text': 'Con todo ese reproceso que le hecha a la leche saborizad... No gracias',</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Platano</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-25T00:26:39.000Z</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>46078.01850694444</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>00:26:39</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1221234193510484', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzEyMjEyMzQxOTM1MTA0ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xMjIxMjM0MTkzNTEwNDg0', 'date': '2026-02-25T00:26:39.000Z', 'text': 'Platano', 'profileUrl': 'https://www.facebook.com/mariaolga.romero.33', 'prof</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Amén Amén Amén gracias a Dios</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-02-23T11:40:05.000Z</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>46076.48616898148</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>11:40:05</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=939558968757507', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzkzOTU1ODk2ODc1NzUwNw==', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV85Mzk1NTg5Njg3NTc1MDc=', 'date': '2026-02-23T11:40:05.000Z', 'text': 'Amén Amén Amén gracias a Dios', 'profileUrl': 'https://www.facebook.com/mari.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Por culpa de su maldad y todavía no te a llegado tu condena de parte de Dios porque tú has echo mucho daño y hay muchas personas y madres pidiendo a Dios justicia porque tú con tu dinero sucio compras todo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-02-23T10:51:13.000Z</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>46076.4522337963</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10:51:13</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=916362060789538', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzkxNjM2MjA2MDc4OTUzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV85MTYzNjIwNjA3ODk1Mzg=', 'date': '2026-02-23T10:51:13.000Z', 'text': 'Por culpa de su maldad y todavía no te a llegado tu condena de parte de Dios p</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En bus tero abandono a Córdoba</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-02-20T20:24:01.000Z</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>46073.85001157408</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20:24:01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1394521465201556', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzEzOTQ1MjE0NjUyMDE1NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xMzk0NTIxNDY1MjAxNTU2', 'date': '2026-02-20T20:24:01.000Z', 'text': 'En bus tero abandono a Córdoba', 'profileUrl': 'https://www.facebook.com/manu</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Elija bien el tigre presidente</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-17T19:25:19.000Z</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>46070.80924768518</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>19:25:19</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1639667540781031', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE2Mzk2Njc1NDA3ODEwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xNjM5NjY3NTQwNzgxMDMx', 'date': '2026-02-17T19:25:19.000Z', 'text': 'Elija bien el tigre presidente', 'profileUrl': 'https://www.facebook.com/peop</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tentacion</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-15T18:58:46.000Z</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>46068.79081018519</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>46068</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>18:58:46</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1226446835701935', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzEyMjY0NDY4MzU3MDE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xMjI2NDQ2ODM1NzAxOTM1', 'date': '2026-02-15T18:58:46.000Z', 'text': 'Tentacion', 'profileUrl': 'https://www.facebook.com/gloriaelisa.guerrerosilva</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>🙏</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-14T16:59:15.000Z</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>46067.7078125</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>46067</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>16:59:15</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1196810685869717', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzExOTY4MTA2ODU4Njk3MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xMTk2ODEwNjg1ODY5NzE3', 'date': '2026-02-14T16:59:15.000Z', 'text': '🙏', 'profileUrl': 'https://www.facebook.com/cristina.dicelis', 'profilePictur</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>AMÉN. Gloria a Dios.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-12T21:04:55.000Z</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>46065.87841435185</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>21:04:55</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1620722985612465', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE2MjA3MjI5ODU2MTI0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xNjIwNzIyOTg1NjEyNDY1', 'date': '2026-02-12T21:04:55.000Z', 'text': 'AMÉN. Gloria a Dios.', 'profileUrl': 'https://www.facebook.com/analuisa.marin</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-11T21:22:47.000Z</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>46064.89082175926</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>21:22:47</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1410819011057832', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE0MTA4MTkwMTEwNTc4MzI=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xNDEwODE5MDExMDU3ODMy', 'date': '2026-02-11T21:22:47.000Z', 'text': 'O', 'profileUrl': 'https://www.facebook.com/estella.varela.75', 'profilePictu</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-02-10T21:43:00.000Z</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>46063.90486111111</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>21:43:00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1925997784667006', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE5MjU5OTc3ODQ2NjcwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xOTI1OTk3Nzg0NjY3MDA2', 'date': '2026-02-10T21:43:00.000Z', 'text': 'P', 'profileUrl': 'https://www.facebook.com/people/Juan-Eliecer-Sierra/pfbid0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Corazon</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:32:46.000Z</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>46061.48108796297</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>46061</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>11:32:46</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=2398465057243115', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzIzOTg0NjUwNTcyNDMxMTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8yMzk4NDY1MDU3MjQzMTE1', 'date': '2026-02-08T11:32:46.000Z', 'text': 'Corazon', 'profileUrl': 'https://www.facebook.com/wilmar.bravo.949055', 'prof</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>🤣🤣🤣🤣🤣, cómo no q esas golosinas es nutrir 🤣🤣🤣🤣🤣🤣</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:46:29.000Z</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>46058.40728009259</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>46058</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>09:46:29</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=841768442239185', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzg0MTc2ODQ0MjIzOTE4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV84NDE3Njg0NDIyMzkxODU=', 'date': '2026-02-05T09:46:29.000Z', 'text': '🤣🤣🤣🤣🤣, cómo no q esas golosinas es nutrir 🤣🤣🤣🤣🤣🤣', 'profileUrl': 'https://www.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>puro azúcar y quimicos en esos productos</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:23:44.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>46058.39148148148</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>46058</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>09:23:44</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=25450361354646300', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzI1NDUwMzYxMzU0NjQ2MzAw', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8yNTQ1MDM2MTM1NDY0NjMwMA==', 'date': '2026-02-05T09:23:44.000Z', 'text': 'puro azúcar y quimicos en esos productos', 'profilePicture': 'https://sc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tiene mucha azúcar</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-02-03T01:06:42.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>46056.04631944445</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>46056</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>01:06:42</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1341161488056087/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nidnFM7mr9dGt1FsMYRisqjqQQLaifmm6gd9fkuL3UhPrXmENKTAJSbnbeNF69hl?comment_id=1403539258135142', 'id': 'Y29tbWVudDoxMzM5MzEyMzQ4MjQxMDAxXzE0MDM1MzkyNTgxMzUxNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTMzOTMxMjM0ODI0MTAwMV8xNDAzNTM5MjU4MTM1MTQy', 'date': '2026-02-03T01:06:42.000Z', 'text': 'Tiene mucha azúcar', 'profileUrl': 'https://www.facebook.com/jesus.ingnacio.l</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341169444721958/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1341169444721958/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUWgOqsDK_s/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUWgOqsDK_s/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DUWhgAGDCgy/</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DUWhgAGDCgy/</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Primera_Extraccion</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ultima_Extraccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1341169444721958/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1318637690308467/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1318637690308467/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1318637670308469/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1318637670308469/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUWgOqsDK_s/</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTRAJB2jBmC/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTRAJB2jBmC/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUWhgAGDCgy/</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1341161488056087/</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1341169444721958/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUWgOqsDK_s/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DUWhgAGDCgy/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>total_attempts</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>no_comments</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>invalid_comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTRAJAkDBC1/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTRAJAkDBC1/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
